--- a/data/TemperatureData.xlsx
+++ b/data/TemperatureData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/GitHub/past-and-future-warming-comaprison-figure/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14623E7C-6611-7F4A-A4C8-294998A03E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1925E-40A1-B141-9A49-B12067D9C45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53340" yWindow="3920" windowWidth="30560" windowHeight="21100" activeTab="2" xr2:uid="{D5781CC1-ED8E-664B-8464-577B17773A02}"/>
+    <workbookView xWindow="53340" yWindow="3920" windowWidth="30560" windowHeight="21100" xr2:uid="{D5781CC1-ED8E-664B-8464-577B17773A02}"/>
   </bookViews>
   <sheets>
     <sheet name="readMe" sheetId="2" r:id="rId1"/>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119B25A4-D4E6-5D49-B7A4-489DBD7AC10D}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364152AC-D067-ED4F-A061-045797401E88}">
   <dimension ref="A1:V220"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -9878,7 +9878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C4AC6B-AF2A-1C4E-B493-814D1841723A}">
   <dimension ref="A1:O453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/data/TemperatureData.xlsx
+++ b/data/TemperatureData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darrellkaufman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/GitHub/past-and-future-warming-comaprison-figure/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C167E368-224A-4340-B4D6-7105C137062B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E774393-7939-3643-91D4-17011DF37410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="460" windowWidth="28820" windowHeight="28340" xr2:uid="{D5781CC1-ED8E-664B-8464-577B17773A02}"/>
+    <workbookView xWindow="22380" yWindow="500" windowWidth="28820" windowHeight="26380" xr2:uid="{D5781CC1-ED8E-664B-8464-577B17773A02}"/>
   </bookViews>
   <sheets>
     <sheet name="readMe" sheetId="4" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Nicholls, Z., Meinshausen, M., and Lewis, J.: AR6 WG1 plots and processing (v1.0.0), Zenodo [data set], https://doi.org/10.5281/zenodo.6386979, 2022.</t>
   </si>
   <si>
-    <t>Osmann, M. B., Tierney, J. E., Zhu, J., Tardif, R., Halkim, G. J., King, J., and Poulsen, C. J.: Globally resolved surface temperatures since the Last Glacial Maximum, Nature, 599, 239–244, https://doi.org/10.1038/s41586-021-03984-4, 2021a.</t>
-  </si>
-  <si>
     <t>Rouston, C., McKay, N., Sommer, P. S., Dätwyler, C., and Erb, M.: nickmckay/Temperature12k: Analysis and plotting code for Temp12k Analysis Paper (1.2.0), Zenodo [code], 105 https://doi.org/10.5281/zenodo.3888590, 2020.</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
   </si>
   <si>
     <t>Kaufman, D., McKay, N., Routson, C., Erb, M., Dätwyler, C., Sommer, P., Heiri, O., and Davis, B.: NOAA/WDS Paleoclimatology – Holocene global surface temperature: A multi-method reconstruction approach, NOAA National Centers for Environmental Information [data set], https://doi.org/10.25921/vzys-1280, 2020c.</t>
-  </si>
-  <si>
-    <t>Osmann, M. B., Tierney, J. E., Zhu, J., Tardif, R., Halkim, G. J., King, J., and Poulsen, C. J.: NOAA/WDS Paleoclimatology – Globally resolved surface temperatures since the Last Glacial Maximum, NOAA National Centers for Environmental Information [data set], https://doi.org/10.25921/njxd-hg08, 2021b.</t>
   </si>
   <si>
     <t>PAGES 2k Consortium (Neukom, R., Barboza, L.A., Erb, M. P., Shi, F., Emile-Geay, J., Evans, M. N., Franke, J., Kaufman, D. S., Lücke, L., Rehfeld, K., Schurer, A., Zhu, F., Brönnimann, S., Hakim, G.J., Henley, B., Ljungqvist, F. C., McKay, N., Valler, V., von Gunten, L.): Consistent multi-decadal variability in global temperature reconstructions and simulations over the Common Era. Nature Geosci., 12, 643-649. https://doi.org/10.1038/s41561-019-0400-0, 2019.</t>
@@ -444,7 +438,13 @@
     <t>Gillett, N. P., Malinina, E., Kaufman, D., Neukom, R.: Summary for Policymakers of the Working Group I contribution to the IPCC Sixth Assessment Report - data for Figure SPM.1 (v20210809). NERC EDS Centre for Environmental Data Analysis [data set], http://dx.doi.org/10.5285/76cad0b4f6f141ada1c44a4ce9e7d4bd, 2021.</t>
   </si>
   <si>
-    <t>The data are available from publicaly accessible sources, and have been modified relative to the 1950-1900 baseline as follows:</t>
+    <t>The data are available from publicaly accessible sources, and have been modified relative to the 1850-1900 baseline as follows:</t>
+  </si>
+  <si>
+    <t>Osman, M. B., Tierney, J. E., Zhu, J., Tardif, R., Halkim, G. J., King, J., and Poulsen, C. J.: Globally resolved surface temperatures since the Last Glacial Maximum, Nature, 599, 239–244, https://doi.org/10.1038/s41586-021-03984-4, 2021a.</t>
+  </si>
+  <si>
+    <t>Osman, M. B., Tierney, J. E., Zhu, J., Tardif, R., Halkim, G. J., King, J., and Poulsen, C. J.: NOAA/WDS Paleoclimatology – Globally resolved surface temperatures since the Last Glacial Maximum, NOAA National Centers for Environmental Information [data set], https://doi.org/10.25921/njxd-hg08, 2021b.</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291E50B2-7260-5F47-A790-6E8ACE5D3914}">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,27 +1044,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -1072,17 +1072,17 @@
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -1090,17 +1090,17 @@
     </row>
     <row r="11" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -1108,17 +1108,17 @@
     </row>
     <row r="15" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -1126,17 +1126,17 @@
     </row>
     <row r="19" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -1144,17 +1144,17 @@
     </row>
     <row r="23" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
     </row>
     <row r="28" spans="1:1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
     </row>
     <row r="32" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
     </row>
     <row r="34" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
     </row>
     <row r="36" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
     </row>
     <row r="38" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
     </row>
     <row r="42" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
     </row>
     <row r="48" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="50" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -1260,7 +1260,7 @@
     </row>
     <row r="52" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
     </row>
     <row r="54" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
     </row>
     <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
@@ -1332,7 +1332,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="E1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -1345,34 +1345,34 @@
       <c r="L1" s="16"/>
       <c r="M1" s="17"/>
       <c r="N1" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="17"/>
       <c r="S1" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T1" s="13"/>
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
       <c r="X1" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -1383,26 +1383,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K2" s="22">
         <v>0.05</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P2" s="34">
         <v>0.05</v>
@@ -1425,10 +1425,10 @@
       </c>
       <c r="R2" s="23"/>
       <c r="S2" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" s="19">
         <v>0.05</v>
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" s="30">
         <v>0.05</v>
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" s="30">
         <v>0.05</v>
@@ -1467,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ2" s="30">
         <v>0.05</v>
